--- a/Yearly Report Performer/Data/Temp/Yearly-Report-2019-DE325476.xlsx
+++ b/Yearly Report Performer/Data/Temp/Yearly-Report-2019-DE325476.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thach\Documents\UiPath\Yearly Report Performer\Data\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thach\Documents\UiPath\Generate Yearly Report\Yearly Report Performer\Data\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C178DEA6-AB7A-4340-B1A4-79B783774356}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC7F8BC-C6C5-4A5B-8EE7-81DC82FFF94E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="1140" windowWidth="19200" windowHeight="11260" xr2:uid="{2D37688C-B65A-4F4C-97F5-FBBC0F84C7B0}"/>
   </bookViews>
@@ -25,33 +25,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="10">
+  <si>
+    <t>Beverages and Catering</t>
+  </si>
+  <si>
+    <t>Waste management services</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>RON</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
   <si>
     <t>Professional Services</t>
   </si>
   <si>
-    <t>RON</t>
-  </si>
-  <si>
-    <t>Beverages and Catering</t>
-  </si>
-  <si>
-    <t>USD</t>
+    <t>Various paper supplies</t>
+  </si>
+  <si>
+    <t>CAD</t>
   </si>
   <si>
     <t>IT Support</t>
-  </si>
-  <si>
-    <t>CAD</t>
-  </si>
-  <si>
-    <t>Waste management services</t>
-  </si>
-  <si>
-    <t>EUR</t>
-  </si>
-  <si>
-    <t>Various paper supplies</t>
   </si>
   <si>
     <t>Concierge Services</t>
@@ -407,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A36F9EC-91E2-4C31-989D-62CDCAA7B5B4}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,186 +415,393 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1">
-        <v>227204</v>
+        <v>401222</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>219113</v>
+        <v>19364</v>
       </c>
       <c r="D1">
-        <v>43822.6</v>
+        <v>3872.8</v>
       </c>
       <c r="E1">
-        <v>262936</v>
+        <v>23236.799999999999</v>
       </c>
       <c r="F1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G1" s="1">
-        <v>42786</v>
+        <v>42748</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>506116</v>
+        <v>866645</v>
       </c>
       <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>271359</v>
+      </c>
+      <c r="D2">
+        <v>54271.8</v>
+      </c>
+      <c r="E2">
+        <v>325631</v>
+      </c>
+      <c r="F2" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
-        <v>274597</v>
-      </c>
-      <c r="D2">
-        <v>54919.4</v>
-      </c>
-      <c r="E2">
-        <v>329516</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
       <c r="G2" s="1">
-        <v>42914</v>
+        <v>42749</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>750326</v>
+        <v>612031</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>293719</v>
+      </c>
+      <c r="D3">
+        <v>58743.8</v>
+      </c>
+      <c r="E3">
+        <v>352463</v>
+      </c>
+      <c r="F3" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
-        <v>114244</v>
-      </c>
-      <c r="D3">
-        <v>22848.799999999999</v>
-      </c>
-      <c r="E3">
-        <v>137093</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
       <c r="G3" s="1">
-        <v>42934</v>
+        <v>42811</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>371153</v>
+        <v>790616</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>159506</v>
+        <v>191649</v>
       </c>
       <c r="D4">
-        <v>31901.200000000001</v>
+        <v>38329.800000000003</v>
       </c>
       <c r="E4">
-        <v>191407</v>
+        <v>229979</v>
       </c>
       <c r="F4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4" s="1">
-        <v>42993</v>
+        <v>42813</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>482877</v>
+        <v>525820</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>131212</v>
+        <v>188518</v>
       </c>
       <c r="D5">
-        <v>26242.400000000001</v>
+        <v>37703.599999999999</v>
       </c>
       <c r="E5">
-        <v>157454</v>
+        <v>226222</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G5" s="1">
-        <v>43002</v>
+        <v>42820</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>710672</v>
+        <v>915786</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>184377</v>
+        <v>252434</v>
       </c>
       <c r="D6">
-        <v>36875.4</v>
+        <v>50486.8</v>
       </c>
       <c r="E6">
-        <v>221252</v>
+        <v>302921</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G6" s="1">
-        <v>42998</v>
+        <v>42836</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>514100</v>
+        <v>905513</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>233435</v>
+        <v>242839</v>
       </c>
       <c r="D7">
-        <v>46687</v>
+        <v>48567.8</v>
       </c>
       <c r="E7">
-        <v>280122</v>
+        <v>291407</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G7" s="1">
-        <v>43088</v>
+        <v>42880</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>348768</v>
+        <v>777683</v>
       </c>
       <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>223667</v>
+      </c>
+      <c r="D8">
+        <v>44733.4</v>
+      </c>
+      <c r="E8">
+        <v>268400</v>
+      </c>
+      <c r="F8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1">
+        <v>42888</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>819770</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>216149</v>
+      </c>
+      <c r="D9">
+        <v>43229.8</v>
+      </c>
+      <c r="E9">
+        <v>259379</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="1">
+        <v>42894</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>870342</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>102049</v>
+      </c>
+      <c r="D10">
+        <v>20409.8</v>
+      </c>
+      <c r="E10">
+        <v>122459</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="1">
+        <v>42908</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>592824</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>9113</v>
+      </c>
+      <c r="D11">
+        <v>1822.6</v>
+      </c>
+      <c r="E11">
+        <v>10935.6</v>
+      </c>
+      <c r="F11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1">
+        <v>42948</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>102120</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>84614</v>
+      </c>
+      <c r="D12">
+        <v>16922.8</v>
+      </c>
+      <c r="E12">
+        <v>101537</v>
+      </c>
+      <c r="F12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>310363</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>161257</v>
+      </c>
+      <c r="D13">
+        <v>32251.4</v>
+      </c>
+      <c r="E13">
+        <v>193508</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>42999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>133687</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>256272</v>
+      </c>
+      <c r="D14">
+        <v>51254.400000000001</v>
+      </c>
+      <c r="E14">
+        <v>307526</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1">
+        <v>43029</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>596572</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>266346</v>
+      </c>
+      <c r="D15">
+        <v>53269.2</v>
+      </c>
+      <c r="E15">
+        <v>319615</v>
+      </c>
+      <c r="F15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1">
+        <v>43032</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>439851</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>217967</v>
+      </c>
+      <c r="D16">
+        <v>43593.4</v>
+      </c>
+      <c r="E16">
+        <v>261560</v>
+      </c>
+      <c r="F16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1">
+        <v>43060</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>812366</v>
+      </c>
+      <c r="B17" t="s">
         <v>9</v>
       </c>
-      <c r="C8">
-        <v>207732</v>
-      </c>
-      <c r="D8">
-        <v>41546.400000000001</v>
-      </c>
-      <c r="E8">
-        <v>249278</v>
-      </c>
-      <c r="F8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="1">
-        <v>43080</v>
+      <c r="C17">
+        <v>35239</v>
+      </c>
+      <c r="D17">
+        <v>7047.8</v>
+      </c>
+      <c r="E17">
+        <v>42286.8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1">
+        <v>43095</v>
       </c>
     </row>
   </sheetData>
